--- a/co_occurrence_policy.xlsx
+++ b/co_occurrence_policy.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,156 @@
       </c>
       <c r="B11" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ship</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>reply</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deliver</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kindly</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>refund</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>minimalist</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +827,156 @@
       </c>
       <c r="B11" t="n">
         <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deliver</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>reply</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dm</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,6 +1108,156 @@
       </c>
       <c r="B11" t="n">
         <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>packaging</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>salicylic</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tranexamic</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>bottle</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +1391,156 @@
         <v>166</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>request</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>accordingly</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>apology</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sincere</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>soon</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
